--- a/FL-gt-structure/ig/StructureDefinition-fr-core-organization-uf.xlsx
+++ b/FL-gt-structure/ig/StructureDefinition-fr-core-organization-uf.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1739" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2063" uniqueCount="410">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-02T22:07:39+00:00</t>
+    <t>2025-12-02T20:15:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -323,13 +323,203 @@
 </t>
   </si>
   <si>
-    <t>Organization.implicitRules</t>
+    <t>Organization.meta.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Organization.meta.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Organization.meta.versionId</t>
+  </si>
+  <si>
+    <t>Version specific identifier</t>
+  </si>
+  <si>
+    <t>The version specific identifier, as it appears in the version portion of the URL. This value changes when the resource is created, updated, or deleted.</t>
+  </si>
+  <si>
+    <t>The server assigns this value, and ignores what the client specifies, except in the case that the server is imposing version integrity on updates/deletes.</t>
+  </si>
+  <si>
+    <t>Meta.versionId</t>
+  </si>
+  <si>
+    <t>Organization.meta.lastUpdated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instant
+</t>
+  </si>
+  <si>
+    <t>When the resource version last changed</t>
+  </si>
+  <si>
+    <t>When the resource last changed - e.g. when the version changed.</t>
+  </si>
+  <si>
+    <t>This value is always populated except when the resource is first being created. The server / resource manager sets this value; what a client provides is irrelevant. This is equivalent to the HTTP Last-Modified and SHOULD have the same value on a [read](http://hl7.org/fhir/R4/http.html#read) interaction.</t>
+  </si>
+  <si>
+    <t>Meta.lastUpdated</t>
+  </si>
+  <si>
+    <t>Organization.meta.source</t>
   </si>
   <si>
     <t xml:space="preserve">uri
 </t>
   </si>
   <si>
+    <t>Identifies where the resource comes from</t>
+  </si>
+  <si>
+    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](http://hl7.org/fhir/R4/provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
+  </si>
+  <si>
+    <t>In the provenance resource, this corresponds to Provenance.entity.what[x]. The exact use of the source (and the implied Provenance.entity.role) is left to implementer discretion. Only one nominated source is allowed; for additional provenance details, a full Provenance resource should be used. 
+This element can be used to indicate where the current master source of a resource that has a canonical URL if the resource is no longer hosted at the canonical URL.</t>
+  </si>
+  <si>
+    <t>Meta.source</t>
+  </si>
+  <si>
+    <t>Organization.meta.profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">canonical(StructureDefinition|4.0.1)
+</t>
+  </si>
+  <si>
+    <t>Profiles this resource claims to conform to</t>
+  </si>
+  <si>
+    <t>A list of profiles (references to [StructureDefinition](http://hl7.org/fhir/R4/structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](http://hl7.org/fhir/R4/structuredefinition-definitions.html#StructureDefinition.url).</t>
+  </si>
+  <si>
+    <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:$this}
+</t>
+  </si>
+  <si>
+    <t>Slice based on the canonical url value</t>
+  </si>
+  <si>
+    <t>Meta.profile</t>
+  </si>
+  <si>
+    <t>Organization.meta.profile:fr-canonical</t>
+  </si>
+  <si>
+    <t>fr-canonical</t>
+  </si>
+  <si>
+    <t>Organization.meta.security</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Security Labels applied to this resource</t>
+  </si>
+  <si>
+    <t>Security labels applied to this resource. These tags connect specific resources to the overall security policy and infrastructure.</t>
+  </si>
+  <si>
+    <t>The security labels can be updated without changing the stated version of the resource. The list of security labels is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/security-labels|4.0.1</t>
+  </si>
+  <si>
+    <t>Meta.security</t>
+  </si>
+  <si>
+    <t>Organization.meta.tag</t>
+  </si>
+  <si>
+    <t>Tags applied to this resource</t>
+  </si>
+  <si>
+    <t>Tags applied to this resource. Tags are intended to be used to identify and relate resources to process and workflow, and applications are not required to consider the tags when interpreting the meaning of a resource.</t>
+  </si>
+  <si>
+    <t>The tags can be updated without changing the stated version of the resource. The list of tags is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones".</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/common-tags|4.0.1</t>
+  </si>
+  <si>
+    <t>Meta.tag</t>
+  </si>
+  <si>
+    <t>Organization.implicitRules</t>
+  </si>
+  <si>
     <t>A set of rules under which this content was created</t>
   </si>
   <si>
@@ -425,28 +615,13 @@
     <t>Organization.extension</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
     <t>Extension</t>
   </si>
   <si>
     <t>An Extension</t>
   </si>
   <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>Organization.extension:shortName</t>
@@ -475,14 +650,14 @@
     <t>description</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-description}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Organization.description}
 </t>
   </si>
   <si>
-    <t>FR Core Organization Description Extension</t>
-  </si>
-  <si>
-    <t>Description textuelle d'une organisation</t>
+    <t>Optional Extensions Element</t>
+  </si>
+  <si>
+    <t>Optional Extension Element - found in all resources.</t>
   </si>
   <si>
     <t>Organization.extension:usePeriod</t>
@@ -526,7 +701,7 @@
     <t>members</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://example.org/fhir/StructureDefinition/organization-member}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-member}
 </t>
   </si>
   <si>
@@ -667,18 +842,11 @@
     <t>Organization.modifierExtension</t>
   </si>
   <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
@@ -783,9 +951,6 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>required</t>
-  </si>
-  <si>
     <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-organization-type</t>
   </si>
   <si>
@@ -795,17 +960,10 @@
     <t>.code</t>
   </si>
   <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>FiveWs.class</t>
   </si>
   <si>
     <t>Organization.name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
   </si>
   <si>
     <t>Name used for the organization</t>
@@ -884,7 +1042,7 @@
     <t>Organization.address</t>
   </si>
   <si>
-    <t xml:space="preserve">Address
+    <t xml:space="preserve">Address {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-address}
 </t>
   </si>
   <si>
@@ -939,28 +1097,7 @@
     <t>Organization.partOf.id</t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
     <t>Organization.partOf.extension</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>Organization.partOf.reference</t>
@@ -993,9 +1130,6 @@
   </si>
   <si>
     <t>This element is used to indicate the type of  the target of the reference. This may be used which ever of the other elements are populated (or not). In some cases, the type of the target may be determined by inspection of the reference (e.g. a RESTful URL) or by resolving the target of the reference; if both the type and a reference is provided, the reference SHALL resolve to a resource of the same type as that specified.</t>
-  </si>
-  <si>
-    <t>extensible</t>
   </si>
   <si>
     <t>Reference.type</t>
@@ -1126,10 +1260,6 @@
   </si>
   <si>
     <t>Organization.contact.telecom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ContactPoint
-</t>
   </si>
   <si>
     <t>Contact details (telephone, email, etc.)  for a contact</t>
@@ -1491,7 +1621,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN47"/>
+  <dimension ref="A1:AN56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1524,7 +1654,7 @@
     <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="46.38671875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="84.54296875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="49.80078125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
@@ -2023,10 +2153,10 @@
         <v>78</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K5" t="s" s="2">
         <v>102</v>
@@ -2037,9 +2167,7 @@
       <c r="M5" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="N5" t="s" s="2">
-        <v>105</v>
-      </c>
+      <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
         <v>78</v>
@@ -2088,7 +2216,7 @@
         <v>78</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>79</v>
@@ -2100,13 +2228,13 @@
         <v>78</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="AM5" t="s" s="2">
         <v>78</v>
@@ -2124,14 +2252,14 @@
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>78</v>
@@ -2143,16 +2271,16 @@
         <v>78</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2178,49 +2306,49 @@
         <v>78</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>112</v>
+        <v>78</v>
       </c>
       <c r="Y6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB6" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="Z6" t="s" s="2">
+      <c r="AC6" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="AA6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="AD6" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="AM6" t="s" s="2">
         <v>78</v>
@@ -2231,14 +2359,14 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -2254,10 +2382,10 @@
         <v>78</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="L7" t="s" s="2">
         <v>119</v>
@@ -2334,7 +2462,7 @@
         <v>78</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>123</v>
+        <v>78</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>78</v>
@@ -2345,21 +2473,21 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>125</v>
+        <v>78</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>78</v>
@@ -2368,19 +2496,19 @@
         <v>78</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="L8" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="M8" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="N8" t="s" s="2">
         <v>127</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>129</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2430,25 +2558,25 @@
         <v>78</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>131</v>
+        <v>78</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>78</v>
@@ -2459,10 +2587,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -2473,7 +2601,7 @@
         <v>79</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>78</v>
@@ -2482,18 +2610,20 @@
         <v>78</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L9" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="M9" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="N9" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="L9" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>78</v>
@@ -2530,29 +2660,31 @@
         <v>78</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AC9" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AD9" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>137</v>
+        <v>78</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>78</v>
@@ -2569,14 +2701,12 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="C10" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
         <v>78</v>
       </c>
@@ -2585,7 +2715,7 @@
         <v>79</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>78</v>
@@ -2594,18 +2724,20 @@
         <v>78</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="N10" s="2"/>
+        <v>138</v>
+      </c>
+      <c r="N10" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>78</v>
@@ -2642,19 +2774,19 @@
         <v>78</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>78</v>
+        <v>140</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>78</v>
+        <v>141</v>
       </c>
       <c r="AD10" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>79</v>
@@ -2663,10 +2795,10 @@
         <v>80</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>145</v>
+        <v>78</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>78</v>
@@ -2683,13 +2815,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>78</v>
@@ -2708,18 +2840,20 @@
         <v>78</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="N11" s="2"/>
+        <v>138</v>
+      </c>
+      <c r="N11" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>78</v>
@@ -2729,7 +2863,7 @@
         <v>78</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="T11" t="s" s="2">
         <v>78</v>
@@ -2768,7 +2902,7 @@
         <v>78</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>79</v>
@@ -2777,10 +2911,10 @@
         <v>80</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>145</v>
+        <v>78</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>78</v>
@@ -2797,14 +2931,12 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="C12" t="s" s="2">
-        <v>152</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
         <v>78</v>
       </c>
@@ -2813,7 +2945,7 @@
         <v>79</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>78</v>
@@ -2822,18 +2954,20 @@
         <v>78</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="N12" s="2"/>
+        <v>148</v>
+      </c>
+      <c r="N12" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>78</v>
@@ -2858,13 +2992,13 @@
         <v>78</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>78</v>
+        <v>150</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>78</v>
+        <v>151</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>78</v>
+        <v>152</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>78</v>
@@ -2882,7 +3016,7 @@
         <v>78</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>79</v>
@@ -2894,7 +3028,7 @@
         <v>78</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>78</v>
@@ -2911,14 +3045,12 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="C13" t="s" s="2">
-        <v>156</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
         <v>78</v>
       </c>
@@ -2927,7 +3059,7 @@
         <v>79</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>78</v>
@@ -2936,19 +3068,19 @@
         <v>78</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="M13" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="N13" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>159</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -2974,13 +3106,13 @@
         <v>78</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>78</v>
+        <v>158</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>78</v>
+        <v>159</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>78</v>
+        <v>160</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>78</v>
@@ -2998,7 +3130,7 @@
         <v>78</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>138</v>
+        <v>161</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>79</v>
@@ -3010,7 +3142,7 @@
         <v>78</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>78</v>
@@ -3027,14 +3159,12 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="C14" t="s" s="2">
-        <v>161</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
         <v>78</v>
       </c>
@@ -3049,22 +3179,22 @@
         <v>78</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>157</v>
+        <v>130</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3114,19 +3244,19 @@
         <v>78</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>138</v>
+        <v>166</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>78</v>
@@ -3143,14 +3273,12 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="C15" t="s" s="2">
-        <v>163</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
         <v>78</v>
       </c>
@@ -3171,15 +3299,17 @@
         <v>78</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="N15" s="2"/>
+        <v>170</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>171</v>
+      </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>78</v>
@@ -3204,13 +3334,13 @@
         <v>78</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>78</v>
+        <v>172</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>78</v>
+        <v>173</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>78</v>
+        <v>174</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>78</v>
@@ -3228,19 +3358,19 @@
         <v>78</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>138</v>
+        <v>175</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>145</v>
+        <v>78</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>78</v>
@@ -3257,16 +3387,14 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="C16" t="s" s="2">
-        <v>168</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>78</v>
+        <v>177</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3285,15 +3413,17 @@
         <v>78</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="N16" s="2"/>
+        <v>180</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>181</v>
+      </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>78</v>
@@ -3342,25 +3472,25 @@
         <v>78</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>138</v>
+        <v>182</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>78</v>
+        <v>183</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>78</v>
@@ -3371,23 +3501,21 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="C17" t="s" s="2">
-        <v>173</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>78</v>
+        <v>185</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>78</v>
@@ -3399,15 +3527,17 @@
         <v>78</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="N17" s="2"/>
+        <v>188</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>189</v>
+      </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>78</v>
@@ -3456,7 +3586,7 @@
         <v>78</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>138</v>
+        <v>190</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>79</v>
@@ -3468,13 +3598,13 @@
         <v>78</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>139</v>
+        <v>78</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>78</v>
+        <v>191</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>78</v>
@@ -3485,14 +3615,12 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="C18" t="s" s="2">
-        <v>178</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
         <v>78</v>
       </c>
@@ -3501,7 +3629,7 @@
         <v>79</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>78</v>
@@ -3513,13 +3641,13 @@
         <v>78</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>179</v>
+        <v>109</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3558,19 +3686,17 @@
         <v>78</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="AC18" s="2"/>
       <c r="AD18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>138</v>
+        <v>195</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>79</v>
@@ -3582,7 +3708,7 @@
         <v>78</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>78</v>
@@ -3599,13 +3725,13 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>132</v>
+        <v>192</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="D19" t="s" s="2">
         <v>78</v>
@@ -3627,13 +3753,13 @@
         <v>78</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3684,7 +3810,7 @@
         <v>78</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>138</v>
+        <v>195</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>79</v>
@@ -3693,10 +3819,10 @@
         <v>80</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>78</v>
+        <v>201</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>78</v>
@@ -3713,13 +3839,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>132</v>
+        <v>192</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>78</v>
@@ -3741,13 +3867,13 @@
         <v>78</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3798,7 +3924,7 @@
         <v>78</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>138</v>
+        <v>195</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
@@ -3807,16 +3933,16 @@
         <v>80</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>78</v>
+        <v>201</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>78</v>
+        <v>191</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>78</v>
@@ -3827,13 +3953,13 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="B21" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="B21" t="s" s="2">
-        <v>132</v>
-      </c>
       <c r="C21" t="s" s="2">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="D21" t="s" s="2">
         <v>78</v>
@@ -3843,7 +3969,7 @@
         <v>79</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>78</v>
@@ -3855,13 +3981,13 @@
         <v>78</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -3912,7 +4038,7 @@
         <v>78</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>138</v>
+        <v>195</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
@@ -3924,7 +4050,7 @@
         <v>78</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>78</v>
@@ -3941,13 +4067,13 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>197</v>
+        <v>211</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>132</v>
+        <v>192</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="D22" t="s" s="2">
         <v>78</v>
@@ -3969,15 +4095,17 @@
         <v>78</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="N22" s="2"/>
+        <v>214</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>215</v>
+      </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>78</v>
@@ -4026,7 +4154,7 @@
         <v>78</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>138</v>
+        <v>195</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
@@ -4038,7 +4166,7 @@
         <v>78</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>78</v>
@@ -4055,13 +4183,13 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>132</v>
+        <v>192</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="D23" t="s" s="2">
         <v>78</v>
@@ -4083,15 +4211,17 @@
         <v>78</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="N23" s="2"/>
+        <v>214</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>215</v>
+      </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>78</v>
@@ -4140,7 +4270,7 @@
         <v>78</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>138</v>
+        <v>195</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
@@ -4152,7 +4282,7 @@
         <v>78</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>78</v>
@@ -4169,46 +4299,44 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="C24" s="2"/>
+        <v>192</v>
+      </c>
+      <c r="C24" t="s" s="2">
+        <v>219</v>
+      </c>
       <c r="D24" t="s" s="2">
-        <v>208</v>
+        <v>78</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="J24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>133</v>
+        <v>220</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>212</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>78</v>
       </c>
@@ -4256,7 +4384,7 @@
         <v>78</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
@@ -4265,16 +4393,16 @@
         <v>80</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>78</v>
+        <v>201</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>131</v>
+        <v>78</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>78</v>
@@ -4285,12 +4413,14 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="C25" s="2"/>
+        <v>192</v>
+      </c>
+      <c r="C25" t="s" s="2">
+        <v>224</v>
+      </c>
       <c r="D25" t="s" s="2">
         <v>78</v>
       </c>
@@ -4299,7 +4429,7 @@
         <v>79</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>78</v>
@@ -4308,21 +4438,19 @@
         <v>78</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="N25" s="2"/>
-      <c r="O25" t="s" s="2">
-        <v>218</v>
-      </c>
+      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>78</v>
       </c>
@@ -4370,7 +4498,7 @@
         <v>78</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>214</v>
+        <v>195</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
@@ -4379,32 +4507,34 @@
         <v>80</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>219</v>
+        <v>78</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>220</v>
+        <v>78</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>221</v>
+        <v>78</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>222</v>
+        <v>78</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>223</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="C26" s="2"/>
+        <v>192</v>
+      </c>
+      <c r="C26" t="s" s="2">
+        <v>229</v>
+      </c>
       <c r="D26" t="s" s="2">
         <v>78</v>
       </c>
@@ -4419,32 +4549,26 @@
         <v>78</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>229</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="Q26" t="s" s="2">
-        <v>230</v>
-      </c>
+      <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
         <v>78</v>
       </c>
@@ -4488,41 +4612,43 @@
         <v>78</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>224</v>
+        <v>195</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>231</v>
+        <v>78</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>232</v>
+        <v>78</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>233</v>
+        <v>78</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>234</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="C27" s="2"/>
+        <v>192</v>
+      </c>
+      <c r="C27" t="s" s="2">
+        <v>234</v>
+      </c>
       <c r="D27" t="s" s="2">
         <v>78</v>
       </c>
@@ -4531,7 +4657,7 @@
         <v>79</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>78</v>
@@ -4540,29 +4666,25 @@
         <v>78</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="M27" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>240</v>
-      </c>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>241</v>
+        <v>78</v>
       </c>
       <c r="S27" t="s" s="2">
         <v>78</v>
@@ -4580,11 +4702,13 @@
         <v>78</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="Y27" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="Y27" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="Z27" t="s" s="2">
-        <v>243</v>
+        <v>78</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>78</v>
@@ -4602,7 +4726,7 @@
         <v>78</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>235</v>
+        <v>195</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
@@ -4614,29 +4738,31 @@
         <v>78</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>244</v>
+        <v>78</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>245</v>
+        <v>78</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>246</v>
+        <v>78</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>247</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="C28" s="2"/>
+        <v>192</v>
+      </c>
+      <c r="C28" t="s" s="2">
+        <v>239</v>
+      </c>
       <c r="D28" t="s" s="2">
         <v>78</v>
       </c>
@@ -4654,23 +4780,19 @@
         <v>78</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>253</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>78</v>
       </c>
@@ -4718,28 +4840,28 @@
         <v>78</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>248</v>
+        <v>195</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>219</v>
+        <v>78</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>254</v>
+        <v>78</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>255</v>
+        <v>78</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>256</v>
+        <v>78</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>78</v>
@@ -4747,12 +4869,14 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="C29" s="2"/>
+        <v>192</v>
+      </c>
+      <c r="C29" t="s" s="2">
+        <v>244</v>
+      </c>
       <c r="D29" t="s" s="2">
         <v>78</v>
       </c>
@@ -4761,7 +4885,7 @@
         <v>79</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>78</v>
@@ -4773,20 +4897,16 @@
         <v>78</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>261</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>78</v>
       </c>
@@ -4834,7 +4954,7 @@
         <v>78</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>257</v>
+        <v>195</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
@@ -4846,13 +4966,13 @@
         <v>78</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>255</v>
+        <v>78</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>78</v>
@@ -4863,12 +4983,14 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="C30" s="2"/>
+        <v>192</v>
+      </c>
+      <c r="C30" t="s" s="2">
+        <v>249</v>
+      </c>
       <c r="D30" t="s" s="2">
         <v>78</v>
       </c>
@@ -4889,20 +5011,16 @@
         <v>78</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>267</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>78</v>
       </c>
@@ -4950,7 +5068,7 @@
         <v>78</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>262</v>
+        <v>195</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
@@ -4959,19 +5077,19 @@
         <v>80</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>268</v>
+        <v>78</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>269</v>
+        <v>117</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>270</v>
+        <v>78</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>271</v>
+        <v>78</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>272</v>
+        <v>78</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>78</v>
@@ -4979,12 +5097,14 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>273</v>
+        <v>253</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="C31" s="2"/>
+        <v>192</v>
+      </c>
+      <c r="C31" t="s" s="2">
+        <v>254</v>
+      </c>
       <c r="D31" t="s" s="2">
         <v>78</v>
       </c>
@@ -4993,7 +5113,7 @@
         <v>79</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>78</v>
@@ -5005,20 +5125,16 @@
         <v>78</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>274</v>
+        <v>255</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>275</v>
+        <v>256</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>278</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>78</v>
       </c>
@@ -5066,7 +5182,7 @@
         <v>78</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>273</v>
+        <v>195</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
@@ -5075,19 +5191,19 @@
         <v>80</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>279</v>
+        <v>78</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>280</v>
+        <v>117</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>281</v>
+        <v>78</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>282</v>
+        <v>78</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>283</v>
+        <v>78</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>78</v>
@@ -5095,12 +5211,14 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>284</v>
+        <v>258</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="C32" s="2"/>
+        <v>192</v>
+      </c>
+      <c r="C32" t="s" s="2">
+        <v>259</v>
+      </c>
       <c r="D32" t="s" s="2">
         <v>78</v>
       </c>
@@ -5118,21 +5236,19 @@
         <v>78</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>285</v>
+        <v>260</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>286</v>
+        <v>261</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>287</v>
+        <v>262</v>
       </c>
       <c r="N32" s="2"/>
-      <c r="O32" t="s" s="2">
-        <v>288</v>
-      </c>
+      <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>78</v>
       </c>
@@ -5180,28 +5296,28 @@
         <v>78</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>284</v>
+        <v>195</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>231</v>
+        <v>78</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>289</v>
+        <v>78</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>246</v>
+        <v>78</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>78</v>
@@ -5209,42 +5325,46 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>290</v>
+        <v>263</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>290</v>
+        <v>263</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="J33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>249</v>
+        <v>109</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>291</v>
+        <v>264</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
+        <v>265</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="O33" t="s" s="2">
+        <v>266</v>
+      </c>
       <c r="P33" t="s" s="2">
         <v>78</v>
       </c>
@@ -5292,25 +5412,25 @@
         <v>78</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>293</v>
+        <v>267</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>246</v>
+        <v>191</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>78</v>
@@ -5321,14 +5441,14 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>294</v>
+        <v>268</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>294</v>
+        <v>268</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>208</v>
+        <v>78</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -5344,21 +5464,21 @@
         <v>78</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>133</v>
+        <v>269</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>295</v>
+        <v>270</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="O34" s="2"/>
+        <v>271</v>
+      </c>
+      <c r="N34" s="2"/>
+      <c r="O34" t="s" s="2">
+        <v>272</v>
+      </c>
       <c r="P34" t="s" s="2">
         <v>78</v>
       </c>
@@ -5394,19 +5514,19 @@
         <v>78</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>297</v>
+        <v>78</v>
       </c>
       <c r="AD34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>137</v>
+        <v>78</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>298</v>
+        <v>268</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
@@ -5415,30 +5535,30 @@
         <v>80</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>78</v>
+        <v>273</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>78</v>
+        <v>274</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>246</v>
+        <v>275</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>78</v>
+        <v>276</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>78</v>
+        <v>277</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>299</v>
+        <v>278</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>299</v>
+        <v>278</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5455,28 +5575,32 @@
         <v>78</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="J35" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>249</v>
+        <v>279</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>301</v>
+        <v>281</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="O35" s="2"/>
+        <v>282</v>
+      </c>
+      <c r="O35" t="s" s="2">
+        <v>283</v>
+      </c>
       <c r="P35" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="Q35" s="2"/>
+      <c r="Q35" t="s" s="2">
+        <v>284</v>
+      </c>
       <c r="R35" t="s" s="2">
         <v>78</v>
       </c>
@@ -5520,7 +5644,7 @@
         <v>78</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>303</v>
+        <v>278</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
@@ -5529,30 +5653,30 @@
         <v>88</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>304</v>
+        <v>78</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>78</v>
+        <v>285</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>131</v>
+        <v>286</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>78</v>
+        <v>287</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>78</v>
+        <v>288</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5563,7 +5687,7 @@
         <v>79</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>78</v>
@@ -5575,24 +5699,26 @@
         <v>89</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>102</v>
+        <v>290</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="O36" s="2"/>
+        <v>293</v>
+      </c>
+      <c r="O36" t="s" s="2">
+        <v>294</v>
+      </c>
       <c r="P36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>78</v>
+        <v>295</v>
       </c>
       <c r="S36" t="s" s="2">
         <v>78</v>
@@ -5610,11 +5736,11 @@
         <v>78</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>309</v>
+        <v>158</v>
       </c>
       <c r="Y36" s="2"/>
       <c r="Z36" t="s" s="2">
-        <v>243</v>
+        <v>296</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>78</v>
@@ -5632,13 +5758,13 @@
         <v>78</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>310</v>
+        <v>289</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>78</v>
@@ -5647,24 +5773,24 @@
         <v>100</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>78</v>
+        <v>297</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>131</v>
+        <v>298</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>78</v>
+        <v>299</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5687,18 +5813,20 @@
         <v>89</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>215</v>
+        <v>102</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="O37" s="2"/>
+        <v>303</v>
+      </c>
+      <c r="O37" t="s" s="2">
+        <v>304</v>
+      </c>
       <c r="P37" t="s" s="2">
         <v>78</v>
       </c>
@@ -5746,7 +5874,7 @@
         <v>78</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
@@ -5755,19 +5883,19 @@
         <v>88</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>78</v>
+        <v>273</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>78</v>
+        <v>305</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>78</v>
+        <v>307</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>78</v>
@@ -5775,10 +5903,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5789,7 +5917,7 @@
         <v>79</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>78</v>
@@ -5798,21 +5926,23 @@
         <v>78</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>249</v>
+        <v>102</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="O38" s="2"/>
+        <v>311</v>
+      </c>
+      <c r="O38" t="s" s="2">
+        <v>312</v>
+      </c>
       <c r="P38" t="s" s="2">
         <v>78</v>
       </c>
@@ -5860,13 +5990,13 @@
         <v>78</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>78</v>
@@ -5878,7 +6008,7 @@
         <v>78</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>131</v>
+        <v>306</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>78</v>
@@ -5889,10 +6019,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5915,19 +6045,19 @@
         <v>78</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>78</v>
@@ -5976,7 +6106,7 @@
         <v>78</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
@@ -5985,19 +6115,19 @@
         <v>80</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>78</v>
+        <v>319</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>100</v>
+        <v>320</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>78</v>
+        <v>321</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>78</v>
+        <v>323</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>78</v>
@@ -6005,10 +6135,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6019,7 +6149,7 @@
         <v>79</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>78</v>
@@ -6031,16 +6161,20 @@
         <v>78</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>249</v>
+        <v>325</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>291</v>
+        <v>326</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
+        <v>327</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="O40" t="s" s="2">
+        <v>329</v>
+      </c>
       <c r="P40" t="s" s="2">
         <v>78</v>
       </c>
@@ -6088,28 +6222,28 @@
         <v>78</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>293</v>
+        <v>324</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>78</v>
+        <v>330</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>78</v>
+        <v>331</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>78</v>
+        <v>332</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>246</v>
+        <v>333</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>78</v>
+        <v>334</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>78</v>
@@ -6117,21 +6251,21 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>208</v>
+        <v>78</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>78</v>
@@ -6140,21 +6274,21 @@
         <v>78</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>133</v>
+        <v>336</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>295</v>
+        <v>337</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="O41" s="2"/>
+        <v>338</v>
+      </c>
+      <c r="N41" s="2"/>
+      <c r="O41" t="s" s="2">
+        <v>339</v>
+      </c>
       <c r="P41" t="s" s="2">
         <v>78</v>
       </c>
@@ -6202,28 +6336,28 @@
         <v>78</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>298</v>
+        <v>335</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>78</v>
+        <v>285</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>246</v>
+        <v>340</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>78</v>
@@ -6231,46 +6365,42 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>332</v>
+        <v>78</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>133</v>
+        <v>102</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>333</v>
+        <v>103</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>212</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>78</v>
       </c>
@@ -6318,25 +6448,25 @@
         <v>78</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>335</v>
+        <v>105</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>139</v>
+        <v>78</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>78</v>
@@ -6347,21 +6477,21 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>78</v>
@@ -6373,18 +6503,18 @@
         <v>78</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>236</v>
+        <v>109</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>337</v>
+        <v>110</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="N43" s="2"/>
-      <c r="O43" t="s" s="2">
-        <v>339</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>78</v>
       </c>
@@ -6408,49 +6538,49 @@
         <v>78</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>309</v>
+        <v>78</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>340</v>
+        <v>78</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>341</v>
+        <v>78</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="AD43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>336</v>
+        <v>116</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>342</v>
+        <v>106</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>78</v>
@@ -6484,21 +6614,21 @@
         <v>78</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="M44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="N44" s="2"/>
-      <c r="O44" t="s" s="2">
-        <v>347</v>
-      </c>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>78</v>
       </c>
@@ -6546,7 +6676,7 @@
         <v>78</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
@@ -6555,16 +6685,16 @@
         <v>88</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>78</v>
+        <v>348</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>348</v>
+        <v>78</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>349</v>
+        <v>191</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>78</v>
@@ -6575,10 +6705,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6589,7 +6719,7 @@
         <v>79</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>78</v>
@@ -6598,21 +6728,21 @@
         <v>78</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="N45" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="M45" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="N45" s="2"/>
-      <c r="O45" t="s" s="2">
-        <v>354</v>
-      </c>
+      <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>78</v>
       </c>
@@ -6636,13 +6766,11 @@
         <v>78</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y45" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="Y45" s="2"/>
       <c r="Z45" t="s" s="2">
-        <v>78</v>
+        <v>296</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>78</v>
@@ -6660,13 +6788,13 @@
         <v>78</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>78</v>
@@ -6675,10 +6803,10 @@
         <v>100</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>355</v>
+        <v>78</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>356</v>
+        <v>191</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>78</v>
@@ -6689,10 +6817,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6712,21 +6840,21 @@
         <v>78</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="N46" s="2"/>
-      <c r="O46" t="s" s="2">
-        <v>360</v>
-      </c>
+        <v>356</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>78</v>
       </c>
@@ -6774,7 +6902,7 @@
         <v>78</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
@@ -6789,10 +6917,10 @@
         <v>100</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>361</v>
+        <v>78</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>78</v>
@@ -6803,10 +6931,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6817,7 +6945,7 @@
         <v>79</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>78</v>
@@ -6826,21 +6954,21 @@
         <v>78</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>364</v>
+        <v>102</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="N47" s="2"/>
-      <c r="O47" t="s" s="2">
-        <v>367</v>
-      </c>
+        <v>362</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>78</v>
       </c>
@@ -6888,13 +7016,13 @@
         <v>78</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>78</v>
@@ -6906,12 +7034,1040 @@
         <v>78</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>246</v>
+        <v>191</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN47" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E48" s="2"/>
+      <c r="F48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="O48" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="P48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q48" s="2"/>
+      <c r="R48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AM48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN48" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E49" s="2"/>
+      <c r="F49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
+      <c r="P49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q49" s="2"/>
+      <c r="R49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AM49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN49" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="B50" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="C50" s="2"/>
+      <c r="D50" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="E50" s="2"/>
+      <c r="F50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="O50" s="2"/>
+      <c r="P50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q50" s="2"/>
+      <c r="R50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AM50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN50" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="E51" s="2"/>
+      <c r="F51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="O51" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="P51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q51" s="2"/>
+      <c r="R51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AM51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN51" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="B52" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E52" s="2"/>
+      <c r="F52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="N52" s="2"/>
+      <c r="O52" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="P52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q52" s="2"/>
+      <c r="R52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN52" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E53" s="2"/>
+      <c r="F53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="N53" s="2"/>
+      <c r="O53" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="P53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q53" s="2"/>
+      <c r="R53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AM53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN53" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="F54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="N54" s="2"/>
+      <c r="O54" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="P54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q54" s="2"/>
+      <c r="R54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN54" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="N55" s="2"/>
+      <c r="O55" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="P55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q55" s="2"/>
+      <c r="R55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN55" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="C56" s="2"/>
+      <c r="D56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E56" s="2"/>
+      <c r="F56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="N56" s="2"/>
+      <c r="O56" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="P56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q56" s="2"/>
+      <c r="R56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN56" t="s" s="2">
         <v>78</v>
       </c>
     </row>

--- a/FL-gt-structure/ig/StructureDefinition-fr-core-organization-uf.xlsx
+++ b/FL-gt-structure/ig/StructureDefinition-fr-core-organization-uf.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-02T20:15:58+00:00</t>
+    <t>2025-12-02T20:49:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FL-gt-structure/ig/StructureDefinition-fr-core-organization-uf.xlsx
+++ b/FL-gt-structure/ig/StructureDefinition-fr-core-organization-uf.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-02T20:49:48+00:00</t>
+    <t>2025-12-02T21:43:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FL-gt-structure/ig/StructureDefinition-fr-core-organization-uf.xlsx
+++ b/FL-gt-structure/ig/StructureDefinition-fr-core-organization-uf.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-07T14:08:03+00:00</t>
+    <t>2026-01-22T11:51:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FL-gt-structure/ig/StructureDefinition-fr-core-organization-uf.xlsx
+++ b/FL-gt-structure/ig/StructureDefinition-fr-core-organization-uf.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-22T11:51:24+00:00</t>
+    <t>2026-01-22T13:05:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FL-gt-structure/ig/StructureDefinition-fr-core-organization-uf.xlsx
+++ b/FL-gt-structure/ig/StructureDefinition-fr-core-organization-uf.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-22T13:05:19+00:00</t>
+    <t>2026-01-22T13:18:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization</t>
+    <t>https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization|2.2.0-ballot</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -630,7 +630,7 @@
     <t>shortName</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-short-name}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-short-name|2.2.0-ballot}
 </t>
   </si>
   <si>
@@ -679,7 +679,7 @@
     <t>openReason</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {note}
+    <t xml:space="preserve">Extension {note|5.2.0}
 </t>
   </si>
   <si>
@@ -701,7 +701,7 @@
     <t>members</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-member}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-member|2.2.0-ballot}
 </t>
   </si>
   <si>
@@ -717,7 +717,7 @@
     <t>discplineEquipement</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-discipline-equipement}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-discipline-equipement|2.2.0-ballot}
 </t>
   </si>
   <si>
@@ -733,7 +733,7 @@
     <t>typeActivite</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-type-activite}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-type-activite|2.2.0-ballot}
 </t>
   </si>
   <si>
@@ -749,7 +749,7 @@
     <t>champActivite</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-champ-activite}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-champ-activite|2.2.0-ballot}
 </t>
   </si>
   <si>
@@ -765,7 +765,7 @@
     <t>placeHebergement</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-place-hebergement-theorique}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-place-hebergement-theorique|2.2.0-ballot}
 </t>
   </si>
   <si>
@@ -781,7 +781,7 @@
     <t>externe</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-uf-externe}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-uf-externe|2.2.0-ballot}
 </t>
   </si>
   <si>
@@ -797,7 +797,7 @@
     <t>indicateur</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-uf-indicateur}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-uf-indicateur|2.2.0-ballot}
 </t>
   </si>
   <si>
@@ -813,7 +813,7 @@
     <t>demandeuseActe</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-demandeuse-acte}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-demandeuse-acte|2.2.0-ballot}
 </t>
   </si>
   <si>
@@ -829,7 +829,7 @@
     <t>executanteActe</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-executante-acte}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-executante-acte|2.2.0-ballot}
 </t>
   </si>
   <si>
@@ -951,7 +951,7 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-organization-type</t>
+    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-organization-type|2.2.0-ballot</t>
   </si>
   <si>
     <t>No equivalent in v2</t>
@@ -1006,7 +1006,7 @@
     <t>Organization.telecom</t>
   </si>
   <si>
-    <t xml:space="preserve">ContactPoint {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-contact-point}
+    <t xml:space="preserve">ContactPoint {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-contact-point|2.2.0-ballot}
 </t>
   </si>
   <si>
@@ -1042,7 +1042,7 @@
     <t>Organization.address</t>
   </si>
   <si>
-    <t xml:space="preserve">Address {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-address}
+    <t xml:space="preserve">Address {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-address|2.2.0-ballot}
 </t>
   </si>
   <si>
@@ -1078,7 +1078,7 @@
     <t>Organization.partOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-etablissement)
+    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization|2.2.0-ballot|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-etablissement|2.2.0-ballot)
 </t>
   </si>
   <si>
@@ -1640,7 +1640,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="123.26953125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="142.28515625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1655,7 +1655,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="84.54296875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="49.80078125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="59.30859375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
